--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216940.5280791948</v>
+        <v>213955.5873968003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9144617.861409323</v>
+        <v>8948454.604323698</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20441951.88648733</v>
+        <v>20249692.27821771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3913100.981782082</v>
+        <v>3982004.192169228</v>
       </c>
     </row>
     <row r="11">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E20" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F20" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.7293992974318</v>
+        <v>68.65221300565767</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D23" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>29.81855126207266</v>
       </c>
       <c r="I23" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>60.36402868517416</v>
       </c>
       <c r="U24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>21.94182076836089</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G26" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U27" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>135.7293992974318</v>
+        <v>81.39848696832993</v>
       </c>
       <c r="S28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.7293992974318</v>
+        <v>60.36402868517418</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="31">
@@ -2950,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="V31" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="W31" t="n">
         <v>119.5504549011778</v>
-      </c>
-      <c r="D31" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="E31" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="F31" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>119.5504549011779</v>
+        <v>119.5504549011778</v>
       </c>
     </row>
     <row r="34">
@@ -3190,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>60.09378870120887</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>81.39848696832996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>60.36402868517418</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>21.94182076836101</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,11 +3505,11 @@
         <v>135.7293992974318</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D38" t="n">
-        <v>29.81855126207271</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="Y38" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,76 +3581,76 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C39" t="n">
+      <c r="X39" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D39" t="n">
-        <v>20.61197602240899</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>98.93847887876893</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
+      <c r="Y39" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,55 +3678,55 @@
         <v>135.7293992974318</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="E41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G41" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="43">
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.39848696833</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>81.39848696832993</v>
       </c>
       <c r="T43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="46">
@@ -4138,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C20" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D20" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E20" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F20" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G20" t="n">
         <v>10.85835194379454</v>
@@ -5750,52 +5752,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J20" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K20" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L20" t="n">
-        <v>145.230457248252</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M20" t="n">
-        <v>279.6025625527094</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N20" t="n">
-        <v>408.5454918852696</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O20" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P20" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X20" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y20" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="C21" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="D21" t="n">
-        <v>147.9587552745337</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="E21" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="F21" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G21" t="n">
         <v>10.85835194379454</v>
@@ -5829,52 +5831,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J21" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K21" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L21" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M21" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N21" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O21" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P21" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q21" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R21" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S21" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="T21" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="U21" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="V21" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="W21" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="X21" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="Y21" t="n">
-        <v>405.8171938589879</v>
+        <v>208.9325216231945</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C22" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D22" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E22" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F22" t="n">
-        <v>405.8171938589878</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G22" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H22" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I22" t="n">
         <v>10.85835194379454</v>
@@ -5911,7 +5913,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K22" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L22" t="n">
         <v>145.0696190886975</v>
@@ -5947,13 +5949,13 @@
         <v>542.917597189727</v>
       </c>
       <c r="W22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X22" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>405.8171938589879</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="C23" t="n">
-        <v>268.7167905282488</v>
+        <v>178.078504024102</v>
       </c>
       <c r="D23" t="n">
-        <v>147.9587552745337</v>
+        <v>178.078504024102</v>
       </c>
       <c r="E23" t="n">
-        <v>147.9587552745337</v>
+        <v>178.078504024102</v>
       </c>
       <c r="F23" t="n">
-        <v>147.9587552745337</v>
+        <v>178.078504024102</v>
       </c>
       <c r="G23" t="n">
-        <v>147.9587552745337</v>
+        <v>178.078504024102</v>
       </c>
       <c r="H23" t="n">
         <v>147.9587552745337</v>
@@ -5990,49 +5992,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K23" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L23" t="n">
-        <v>82.85689621660021</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M23" t="n">
-        <v>217.2290015210577</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="N23" t="n">
-        <v>314.1132381987326</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O23" t="n">
-        <v>314.1132381987326</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P23" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R23" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S23" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T23" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="U23" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="V23" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="W23" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="X23" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="Y23" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G24" t="n">
         <v>10.85835194379454</v>
@@ -6066,52 +6068,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J24" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K24" t="n">
-        <v>71.11249847690068</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L24" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M24" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N24" t="n">
+        <v>145.230457248252</v>
+      </c>
+      <c r="O24" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="O24" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="P24" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q24" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T24" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U24" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V24" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W24" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230.1794491819377</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C25" t="n">
-        <v>230.1794491819377</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D25" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E25" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F25" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G25" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H25" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I25" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J25" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="K25" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L25" t="n">
         <v>145.0696190886975</v>
@@ -6166,31 +6168,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q25" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R25" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S25" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T25" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U25" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V25" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W25" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X25" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y25" t="n">
-        <v>230.1794491819377</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="C26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="D26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="E26" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="F26" t="n">
-        <v>268.7167905282488</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G26" t="n">
         <v>147.9587552745337</v>
@@ -6227,49 +6229,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K26" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L26" t="n">
-        <v>351.6011068255151</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="M26" t="n">
-        <v>485.9732121299726</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="N26" t="n">
-        <v>542.9175971897271</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="O26" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P26" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R26" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S26" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T26" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U26" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y26" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
     </row>
     <row r="27">
@@ -6303,37 +6305,37 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K27" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L27" t="n">
-        <v>71.11249847690068</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M27" t="n">
-        <v>205.4846037813581</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N27" t="n">
-        <v>339.8567090858156</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O27" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S27" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T27" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U27" t="n">
         <v>285.0591586052728</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C28" t="n">
         <v>10.85835194379454</v>
@@ -6367,25 +6369,25 @@
         <v>10.85835194379454</v>
       </c>
       <c r="E28" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F28" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G28" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H28" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I28" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J28" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K28" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L28" t="n">
         <v>145.0696190886975</v>
@@ -6394,40 +6396,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N28" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O28" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R28" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S28" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T28" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U28" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V28" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W28" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X28" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C29" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D29" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E29" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F29" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G29" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I29" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J29" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="K29" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="L29" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="M29" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="N29" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="O29" t="n">
+        <v>314.1132381987325</v>
+      </c>
+      <c r="P29" t="n">
+        <v>448.4853435031899</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="R29" t="n">
+        <v>452.2793106855803</v>
+      </c>
+      <c r="S29" t="n">
+        <v>452.2793106855803</v>
+      </c>
+      <c r="T29" t="n">
+        <v>452.2793106855803</v>
+      </c>
+      <c r="U29" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="V29" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="W29" t="n">
+        <v>147.9587552745337</v>
+      </c>
+      <c r="X29" t="n">
         <v>10.85835194379454</v>
       </c>
-      <c r="K29" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="L29" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="M29" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="N29" t="n">
-        <v>179.7411328942751</v>
-      </c>
-      <c r="O29" t="n">
-        <v>314.1132381987326</v>
-      </c>
-      <c r="P29" t="n">
-        <v>448.4853435031901</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="R29" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="S29" t="n">
-        <v>405.8171938589879</v>
-      </c>
-      <c r="T29" t="n">
-        <v>405.8171938589879</v>
-      </c>
-      <c r="U29" t="n">
-        <v>405.8171938589879</v>
-      </c>
-      <c r="V29" t="n">
-        <v>405.8171938589879</v>
-      </c>
-      <c r="W29" t="n">
-        <v>405.8171938589879</v>
-      </c>
-      <c r="X29" t="n">
-        <v>405.8171938589879</v>
-      </c>
       <c r="Y29" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>285.0591586052728</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="C30" t="n">
-        <v>285.0591586052728</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="D30" t="n">
-        <v>147.9587552745337</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="E30" t="n">
         <v>10.85835194379454</v>
@@ -6546,46 +6548,46 @@
         <v>71.11249847690068</v>
       </c>
       <c r="L30" t="n">
-        <v>139.8012812763547</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M30" t="n">
+        <v>205.4846037813581</v>
+      </c>
+      <c r="N30" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="N30" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="O30" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P30" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R30" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S30" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T30" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="U30" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V30" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="W30" t="n">
-        <v>285.0591586052728</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="X30" t="n">
-        <v>285.0591586052728</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="Y30" t="n">
-        <v>285.0591586052728</v>
+        <v>208.9325216231945</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C31" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D31" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E31" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F31" t="n">
         <v>10.85835194379454</v>
@@ -6622,7 +6624,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K31" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L31" t="n">
         <v>145.0696190886975</v>
@@ -6646,25 +6648,25 @@
         <v>542.917597189727</v>
       </c>
       <c r="S31" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T31" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U31" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V31" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="W31" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X31" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y31" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>131.6163871975096</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="C32" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="D32" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="E32" t="n">
         <v>10.85835194379454</v>
@@ -6701,49 +6703,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K32" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L32" t="n">
-        <v>179.7411328942751</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M32" t="n">
-        <v>179.7411328942751</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N32" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O32" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P32" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U32" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W32" t="n">
-        <v>131.6163871975096</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X32" t="n">
-        <v>131.6163871975096</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.6163871975096</v>
+        <v>315.1789073548412</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C33" t="n">
         <v>10.85835194379454</v>
@@ -6783,46 +6785,46 @@
         <v>145.230457248252</v>
       </c>
       <c r="L33" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M33" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N33" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O33" t="n">
-        <v>274.1733865808121</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P33" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q33" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R33" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S33" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T33" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U33" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V33" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W33" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X33" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D34" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E34" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F34" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G34" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H34" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I34" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J34" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="K34" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L34" t="n">
         <v>145.0696190886975</v>
@@ -6868,40 +6870,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N34" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O34" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P34" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q34" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R34" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S34" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T34" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U34" t="n">
-        <v>542.9175971897271</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="V34" t="n">
-        <v>542.9175971897271</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="W34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="35">
@@ -6938,37 +6940,37 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K35" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L35" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="N35" t="n">
-        <v>351.6011068255151</v>
+        <v>351.601106825515</v>
       </c>
       <c r="O35" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P35" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T35" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="U35" t="n">
         <v>422.159561936012</v>
-      </c>
-      <c r="U35" t="n">
-        <v>285.0591586052728</v>
       </c>
       <c r="V35" t="n">
         <v>285.0591586052728</v>
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>131.6163871975096</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="C36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="D36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="E36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="F36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="G36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="H36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="I36" t="n">
         <v>10.85835194379454</v>
@@ -7017,49 +7019,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K36" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="L36" t="n">
         <v>205.4846037813581</v>
       </c>
-      <c r="L36" t="n">
-        <v>274.1733865808121</v>
-      </c>
       <c r="M36" t="n">
-        <v>274.1733865808121</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="N36" t="n">
-        <v>408.5454918852696</v>
+        <v>474.2288143902729</v>
       </c>
       <c r="O36" t="n">
-        <v>542.9175971897271</v>
+        <v>474.2288143902729</v>
       </c>
       <c r="P36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S36" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="T36" t="n">
-        <v>405.8171938589879</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="U36" t="n">
-        <v>268.7167905282488</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="V36" t="n">
-        <v>268.7167905282488</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="W36" t="n">
-        <v>131.6163871975096</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="X36" t="n">
-        <v>131.6163871975096</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="Y36" t="n">
-        <v>131.6163871975096</v>
+        <v>71.83211829245533</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>367.2798525126769</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C37" t="n">
-        <v>367.2798525126769</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D37" t="n">
-        <v>367.2798525126769</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E37" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F37" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G37" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H37" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I37" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379446</v>
       </c>
       <c r="J37" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379446</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L37" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M37" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N37" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O37" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P37" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q37" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R37" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S37" t="n">
-        <v>367.2798525126769</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T37" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U37" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V37" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W37" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X37" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y37" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C38" t="n">
-        <v>40.97810069336293</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D38" t="n">
         <v>10.85835194379454</v>
@@ -7172,10 +7174,10 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J38" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K38" t="n">
-        <v>45.36902758981768</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L38" t="n">
         <v>179.7411328942751</v>
@@ -7187,7 +7189,7 @@
         <v>314.1132381987326</v>
       </c>
       <c r="O38" t="n">
-        <v>448.4853435031901</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P38" t="n">
         <v>448.4853435031901</v>
@@ -7196,28 +7198,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R38" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X38" t="n">
-        <v>315.1789073548413</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C39" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D39" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E39" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F39" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G39" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H39" t="n">
         <v>10.85835194379454</v>
@@ -7287,16 +7289,16 @@
         <v>542.9175971897271</v>
       </c>
       <c r="V39" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W39" t="n">
         <v>405.8171938589879</v>
       </c>
       <c r="X39" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y39" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C40" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D40" t="n">
-        <v>422.159561936012</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E40" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F40" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G40" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H40" t="n">
         <v>10.85835194379454</v>
@@ -7333,7 +7335,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K40" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843797</v>
       </c>
       <c r="L40" t="n">
         <v>145.0696190886975</v>
@@ -7342,13 +7344,13 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N40" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O40" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P40" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q40" t="n">
         <v>542.9175971897271</v>
@@ -7363,19 +7365,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U40" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V40" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W40" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X40" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y40" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C41" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D41" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="E41" t="n">
-        <v>268.7167905282488</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F41" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G41" t="n">
         <v>10.85835194379454</v>
@@ -7409,52 +7411,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J41" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K41" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="L41" t="n">
+        <v>45.36902758981768</v>
+      </c>
+      <c r="M41" t="n">
         <v>179.7411328942751</v>
       </c>
-      <c r="L41" t="n">
-        <v>314.1132381987326</v>
-      </c>
-      <c r="M41" t="n">
-        <v>314.1132381987326</v>
-      </c>
       <c r="N41" t="n">
-        <v>448.4853435031901</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="O41" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P41" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C42" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D42" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E42" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F42" t="n">
         <v>10.85835194379454</v>
@@ -7491,49 +7493,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K42" t="n">
-        <v>205.4846037813581</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L42" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="M42" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="N42" t="n">
+        <v>139.8012812763547</v>
+      </c>
+      <c r="O42" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="M42" t="n">
-        <v>274.1733865808121</v>
-      </c>
-      <c r="N42" t="n">
-        <v>408.5454918852696</v>
-      </c>
-      <c r="O42" t="n">
-        <v>542.9175971897271</v>
-      </c>
       <c r="P42" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q42" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R42" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S42" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T42" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U42" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V42" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W42" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X42" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E43" t="n">
-        <v>93.0790458511986</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F43" t="n">
         <v>10.85835194379454</v>
@@ -7570,7 +7572,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K43" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L43" t="n">
         <v>145.0696190886975</v>
@@ -7579,40 +7581,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N43" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O43" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P43" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q43" t="n">
-        <v>504.3802558434161</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R43" t="n">
-        <v>367.2798525126769</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S43" t="n">
-        <v>367.2798525126769</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="T43" t="n">
-        <v>230.1794491819378</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U43" t="n">
-        <v>230.1794491819378</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V43" t="n">
-        <v>230.1794491819378</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W43" t="n">
-        <v>230.1794491819378</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
     </row>
   </sheetData>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L20" t="n">
-        <v>327.2896114605464</v>
+        <v>289.4230774940993</v>
       </c>
       <c r="M20" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
-        <v>316.6434973364323</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P20" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,13 +9479,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>181.378778055004</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L21" t="n">
-        <v>248.3048328685796</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M21" t="n">
         <v>115.4839025616399</v>
@@ -9492,13 +9494,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P21" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9638,25 +9640,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M23" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N23" t="n">
-        <v>284.2609795032149</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O23" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P23" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L24" t="n">
-        <v>181.9580424594851</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N24" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>251.5888479085429</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P24" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9878,22 +9880,22 @@
         <v>314.5524032714785</v>
       </c>
       <c r="L26" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
-        <v>243.917695040669</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>186.9547967801205</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9951,25 +9953,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>242.2415523308689</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M27" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N27" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O27" t="n">
-        <v>185.2420574994484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>314.5524032714785</v>
@@ -10121,13 +10123,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
-        <v>221.2573825015464</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>322.6841960775522</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P29" t="n">
-        <v>323.6062083485883</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10194,22 +10196,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>181.9580424594851</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M30" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N30" t="n">
-        <v>242.4445403651401</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O30" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P30" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10349,16 +10351,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L32" t="n">
-        <v>289.4230774940994</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M32" t="n">
-        <v>187.1563144971591</v>
+        <v>244.675895365598</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
         <v>322.6841960775522</v>
@@ -10367,7 +10369,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10431,22 +10433,22 @@
         <v>247.7255684640984</v>
       </c>
       <c r="L33" t="n">
-        <v>242.82081673535</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M33" t="n">
-        <v>115.4839025616399</v>
+        <v>245.7292857258421</v>
       </c>
       <c r="N33" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P33" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10586,19 +10588,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L35" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O35" t="n">
-        <v>284.8176621111053</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P35" t="n">
         <v>187.8768090511565</v>
@@ -10665,22 +10667,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>181.9580424594851</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N36" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O36" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>178.2368149124807</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>213.682272303363</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L38" t="n">
-        <v>327.2896114605464</v>
+        <v>289.4230774940994</v>
       </c>
       <c r="M38" t="n">
         <v>187.1563144971591</v>
@@ -10835,10 +10837,10 @@
         <v>322.1275134696619</v>
       </c>
       <c r="O38" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P38" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K41" t="n">
-        <v>276.6858693050315</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L41" t="n">
-        <v>327.2896114605464</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P41" t="n">
         <v>187.8768090511565</v>
@@ -11139,25 +11141,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>181.9580424594851</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>242.4445403651401</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O42" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11221,7 +11223,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2171120040208</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
         <v>232.0625591822793</v>
@@ -11297,25 +11299,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N44" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P44" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -11388,13 +11390,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>185.2420574994485</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>233.3663258276169</v>
       </c>
       <c r="E20" t="n">
-        <v>271.2874077937763</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F20" t="n">
-        <v>274.2802794854996</v>
+        <v>290.4592238817535</v>
       </c>
       <c r="G20" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
@@ -24032,7 +24034,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>17.89979573851211</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>9.828330546265704</v>
+        <v>76.9055168380398</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -24114,7 +24116,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>62.16936009635819</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24136,16 +24138,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>38.22846386734109</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -24187,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>242.3850217830889</v>
       </c>
       <c r="D23" t="n">
-        <v>249.5452702238707</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -24221,10 +24223,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>299.6745103965911</v>
       </c>
       <c r="I23" t="n">
-        <v>35.35962750586017</v>
+        <v>35.3596275058602</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U23" t="n">
         <v>252.3364829231459</v>
@@ -24297,7 +24299,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>7.890760075770345</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>126.4342241105005</v>
       </c>
       <c r="U24" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W24" t="n">
         <v>103.1733107815913</v>
       </c>
       <c r="X24" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010428</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308315</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24379,13 +24381,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
-        <v>135.837098000158</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
@@ -24430,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>100.2643523184679</v>
       </c>
     </row>
     <row r="26">
@@ -24449,16 +24451,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>361.0193114328816</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G26" t="n">
-        <v>292.3924917791759</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H26" t="n">
-        <v>193.763662361232</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -24497,10 +24499,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -24570,16 +24572,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>31.72103721620918</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U27" t="n">
-        <v>80.58044518024116</v>
+        <v>96.75938957649511</v>
       </c>
       <c r="V27" t="n">
-        <v>90.38226702871759</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W27" t="n">
         <v>103.1733107815913</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010428</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.2971642743338</v>
+        <v>66.62807660343563</v>
       </c>
       <c r="S28" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
         <v>230.8471636524779</v>
@@ -24658,16 +24660,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>109.3894845624001</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>209.9426067574859</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>222.5179316610732</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>9.828330546265704</v>
+        <v>85.19370115852328</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -24819,13 +24821,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>119.3522551778451</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="31">
@@ -24838,16 +24840,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>48.36935494175869</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
         <v>167.2305511458285</v>
@@ -24886,19 +24888,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T31" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>163.744382566597</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24917,13 +24919,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>258.5639661793427</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>233.3663258276169</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>361.0193114328815</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24971,19 +24973,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>24.3572367340231</v>
       </c>
       <c r="D33" t="n">
         <v>137.45025063969</v>
@@ -25044,7 +25046,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -25053,16 +25055,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>71.04565818573903</v>
+        <v>71.04565818573913</v>
       </c>
     </row>
     <row r="34">
@@ -25078,25 +25080,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308315</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>90.86205972327178</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25129,13 +25131,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>201.8963504994449</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25205,13 +25207,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>102.564901905121</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>116.6070836257141</v>
+        <v>132.7860280219681</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W35" t="n">
         <v>223.1801815435432</v>
@@ -25233,7 +25235,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>40.53618113027693</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -25251,7 +25253,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>7.334433771665424</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>15.54209281995534</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U36" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010428</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>48.36935494175867</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25327,13 +25329,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
-        <v>135.8370980001579</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U37" t="n">
         <v>284.3183371157911</v>
@@ -25391,10 +25393,10 @@
         <v>254.3737048254072</v>
       </c>
       <c r="C38" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>339.2771738629759</v>
+        <v>233.3663258276169</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -25454,10 +25456,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>258.6593841725436</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.0958490560165</v>
+        <v>38.27479345227036</v>
       </c>
       <c r="C39" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>116.8382746172811</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -25485,7 +25487,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -25527,16 +25529,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="40">
@@ -25552,10 +25554,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>31.99071933933696</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25564,7 +25566,7 @@
         <v>31.50115184839672</v>
       </c>
       <c r="H40" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -25603,16 +25605,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>109.3894845624001</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25628,19 +25630,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>249.5452702238708</v>
       </c>
       <c r="E41" t="n">
-        <v>255.1084633975224</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F41" t="n">
         <v>274.2802794854996</v>
       </c>
       <c r="G41" t="n">
-        <v>292.392491779176</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
@@ -25716,7 +25718,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>13.79640516844648</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
@@ -25755,10 +25757,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -25767,13 +25769,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>103.1733107815913</v>
+        <v>119.3522551778452</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="43">
@@ -25792,10 +25794,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>69.55736145615064</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>167.2305511458285</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.2971642743338</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>130.1741780020194</v>
       </c>
       <c r="T43" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25916,16 +25918,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>239.3591259397971</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25992,16 +25994,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>31.7210372162093</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -26010,7 +26012,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="46">
@@ -26026,19 +26028,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308315</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>14.7595247988626</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>15.22644912704891</v>
       </c>
       <c r="G46" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>38.22846386734108</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400627.5052483277</v>
+        <v>400627.5052483274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400627.5052483279</v>
+        <v>400627.5052483276</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400627.5052483276</v>
+        <v>400627.5052483277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>400627.5052483279</v>
+        <v>400627.5052483275</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>400627.5052483277</v>
+        <v>400627.5052483275</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400627.5052483277</v>
+        <v>400627.5052483275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400627.5052483274</v>
+        <v>400627.5052483277</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281309.4386566844</v>
+        <v>400627.5052483275</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>49909.73911650855</v>
+      </c>
+      <c r="C2" t="n">
         <v>49909.73911650854</v>
-      </c>
-      <c r="C2" t="n">
-        <v>49909.73911650853</v>
       </c>
       <c r="D2" t="n">
         <v>49909.73911650854</v>
       </c>
       <c r="E2" t="n">
+        <v>49909.73911650856</v>
+      </c>
+      <c r="F2" t="n">
         <v>49909.73911650854</v>
-      </c>
-      <c r="F2" t="n">
-        <v>49909.73911650852</v>
       </c>
       <c r="G2" t="n">
         <v>49909.73911650854</v>
@@ -26332,10 +26334,10 @@
         <v>71058.29602616648</v>
       </c>
       <c r="I2" t="n">
-        <v>71058.29602616647</v>
+        <v>71058.29602616648</v>
       </c>
       <c r="J2" t="n">
-        <v>71058.29602616648</v>
+        <v>71058.2960261665</v>
       </c>
       <c r="K2" t="n">
         <v>71058.29602616648</v>
@@ -26344,16 +26346,16 @@
         <v>71058.29602616648</v>
       </c>
       <c r="M2" t="n">
-        <v>71058.29602616647</v>
+        <v>71058.2960261665</v>
       </c>
       <c r="N2" t="n">
-        <v>71058.29602616647</v>
+        <v>71058.29602616648</v>
       </c>
       <c r="O2" t="n">
         <v>71058.29602616647</v>
       </c>
       <c r="P2" t="n">
-        <v>49909.73911650853</v>
+        <v>71058.2960261665</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32082.90102953113</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="C4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="D4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="E4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="F4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="G4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="H4" t="n">
+        <v>19614.34269859507</v>
+      </c>
+      <c r="I4" t="n">
         <v>19614.34269859508</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>19614.34269859507</v>
       </c>
-      <c r="J4" t="n">
-        <v>19614.34269859508</v>
-      </c>
       <c r="K4" t="n">
-        <v>19614.34269859508</v>
+        <v>19614.34269859507</v>
       </c>
       <c r="L4" t="n">
         <v>19614.34269859507</v>
@@ -26457,7 +26459,7 @@
         <v>19614.34269859508</v>
       </c>
       <c r="P4" t="n">
-        <v>13611.74703177505</v>
+        <v>19614.34269859507</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="I5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="J5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="K5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="L5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="M5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="N5" t="n">
         <v>8252.347477283851</v>
       </c>
       <c r="O5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8252.347477283849</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2670.392084733496</v>
+      </c>
+      <c r="C6" t="n">
         <v>2670.392084733488</v>
       </c>
-      <c r="C6" t="n">
-        <v>2670.392084733474</v>
-      </c>
       <c r="D6" t="n">
-        <v>2670.392084733481</v>
+        <v>2670.392084733488</v>
       </c>
       <c r="E6" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.9920847335</v>
       </c>
       <c r="F6" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="G6" t="n">
         <v>36297.99208473349</v>
       </c>
       <c r="H6" t="n">
-        <v>6570.592355246785</v>
+        <v>6570.592355246801</v>
       </c>
       <c r="I6" t="n">
+        <v>43191.60585028756</v>
+      </c>
+      <c r="J6" t="n">
+        <v>43191.60585028758</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43191.60585028757</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43191.60585028757</v>
+      </c>
+      <c r="M6" t="n">
+        <v>43191.60585028758</v>
+      </c>
+      <c r="N6" t="n">
+        <v>43191.60585028756</v>
+      </c>
+      <c r="O6" t="n">
         <v>43191.60585028755</v>
       </c>
-      <c r="J6" t="n">
-        <v>43191.60585028755</v>
-      </c>
-      <c r="K6" t="n">
-        <v>43191.60585028755</v>
-      </c>
-      <c r="L6" t="n">
-        <v>43191.60585028756</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43191.60585028755</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43191.60585028754</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43191.60585028754</v>
-      </c>
       <c r="P6" t="n">
-        <v>36297.99208473347</v>
+        <v>11108.70482075645</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="K4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N4" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="M20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L21" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P21" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M23" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N23" t="n">
-        <v>97.86286533098477</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L24" t="n">
-        <v>69.38260888833736</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>57.51958086843889</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O27" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36841,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>34.85926832931631</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q29" t="n">
         <v>95.38611483488586</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>135.7293992974318</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="O30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L32" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="N32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L33" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="M33" t="n">
         <v>130.2453831642022</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94362398448833</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37242,7 +37244,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>63.60452901832097</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O35" t="n">
-        <v>97.8628653309848</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94362398448833</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>34.85926832931629</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098477</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>97.86286533098477</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>135.7293992974318</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.7293992974318</v>
+        <v>69.38260888833739</v>
       </c>
       <c r="O42" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6233125255147</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.85926832931628</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
